--- a/RQ3/result/GB/GB_11.xlsx
+++ b/RQ3/result/GB/GB_11.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ml\api-diff\label_data\GB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICSE2020APIComp.github.io\RQ3\result\GB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3723F1C-770A-4261-A609-59401BEDE02F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347F7F20-EAB6-41A0-B905-B2E3B6B0A17E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{0C38CB4F-AEE5-43E9-99FD-92CDCA2F7B25}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>number</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -59,18 +59,6 @@
   </si>
   <si>
     <t>cost_time_v1:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>why choice this API?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>If you are not sure of an answer, what is the reason (because the API documentation does not say, or there are no relevant resources on the web, or something else)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>if you solve problem by website, paste the original URL that supports your choice</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -252,135 +240,20 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">cost_time_v2: (tool+doc) </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Which part do you think spends a lot of time? 1-Understand the problem 2-Use this method to query the time of the question 3-Read and understand the results of the query 4-make a decision</t>
-  </si>
-  <si>
-    <t>the first one return only public constructors while another one return all kinds of type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>eacause HashMap is unsynchronized</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/u010983881/article/details/49762595</t>
-  </si>
-  <si>
     <t>Java difference between FileWriter and BufferedWriter</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>beacause FileWriter writes character files while BufferWriter writes a single character</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. When we execute DriverManager.registerDriver(new Driver()), the static code block has already been executed, which is equivalent to instantiating two Driver objects. 2. DriverManager.registerDriver(new Driver()) produces a dependency on MySQL. The way of Class.forName can be changed dynamically when it is running.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/zhangchaoy/article/details/21092197</t>
-  </si>
-  <si>
-    <t>we only want to close the JAVA Swing application, but not the whole JVM</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>This class provides an API that is compatible with StringBuffer but does not guarantee synchronization. This class is designed to be used as a simple replacement for StringBuffer when used in a string buffer by a single thread (this is common). If possible, it is recommended to use this class first, because in most implementations it is faster than StringBuffer. The two methods are basically the same.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/rmn190/article/details/1492013</t>
-  </si>
-  <si>
     <t>java.util.LinkedHashMap</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>there are no relevant resources on the web</t>
-  </si>
-  <si>
-    <t>because user want to get an excepption mechanism</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://cn.voidcc.com/question/p-ewikfwzw-bba.html</t>
-  </si>
-  <si>
     <t>What's the difference between next() and nextLine() methods from Scanner class?</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>beacause nextLine() return the rest of the current line, excluding any line separator at the end  while next() only return the next complete token from this scanner, which means it will stop before the first space it meet.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ileReader() is for text conten, and fileInputStream() is for binary content</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/JemBai/archive/2012/08/24/2654472.html</t>
-  </si>
-  <si>
-    <t>ArrayList() can be random accessed</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>HashMap vs ArrayList performance am I correct</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ocalDateTime has no time zone</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/32437550/whats-the-difference-between-instant-and-localdatetime</t>
   </si>
   <si>
     <t>If we only want to close a Java Swing application when a button is clicked, which method should I use?</t>
@@ -395,7 +268,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,15 +308,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -468,18 +332,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -489,18 +350,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="20% - 着色 1" xfId="1" builtinId="30"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -812,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9633286-95B1-461A-B199-009C1CB0DEF7}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -830,11 +684,10 @@
     <col min="8" max="8" width="18.75" style="3" customWidth="1"/>
     <col min="9" max="9" width="17.75" style="3" customWidth="1"/>
     <col min="10" max="10" width="31.375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="21.625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="3"/>
+    <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -842,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -865,23 +718,8 @@
       <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -889,22 +727,22 @@
         <v>35251000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -912,17 +750,8 @@
       <c r="J2" s="4">
         <v>100</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="O2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -930,37 +759,31 @@
         <v>8249173</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <v>76</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -968,22 +791,22 @@
         <v>40471</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -991,17 +814,8 @@
       <c r="J4" s="4">
         <v>46</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="O4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1009,37 +823,31 @@
         <v>12350248</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>55</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1047,22 +855,22 @@
         <v>5484227</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -1070,17 +878,8 @@
       <c r="J6" s="4">
         <v>90</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1088,37 +887,31 @@
         <v>13360430</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="6">
+        <v>48</v>
+      </c>
+      <c r="I7" s="5">
         <v>2</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>84</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="O7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1126,22 +919,22 @@
         <v>355089</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="H8" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I8" s="1">
         <v>2</v>
@@ -1149,17 +942,8 @@
       <c r="J8" s="4">
         <v>79</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="O8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1167,40 +951,31 @@
         <v>12998568</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="6">
+        <v>48</v>
+      </c>
+      <c r="I9" s="5">
         <v>3</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>124</v>
       </c>
-      <c r="K9" s="6">
-        <v>143</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="O9" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1208,22 +983,22 @@
         <v>17378108</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I10" s="1">
         <v>2</v>
@@ -1231,19 +1006,8 @@
       <c r="J10" s="4">
         <v>153</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1251,37 +1015,31 @@
         <v>22458575</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="6">
+        <v>48</v>
+      </c>
+      <c r="I11" s="5">
         <v>1</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>85</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="O11" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1289,22 +1047,22 @@
         <v>5155226</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -1312,17 +1070,8 @@
       <c r="J12" s="4">
         <v>120</v>
       </c>
-      <c r="L12" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="O12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1330,47 +1079,33 @@
         <v>1518103</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>2</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>60</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="O13" s="6">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="N4" r:id="rId1" xr:uid="{49FEE042-A2F5-4A24-AB57-FD8277CDDB7B}"/>
-    <hyperlink ref="N6" r:id="rId2" xr:uid="{386C4D3C-D647-402D-90C6-F9784F2E6EED}"/>
-    <hyperlink ref="N8" r:id="rId3" xr:uid="{38144806-24B2-4FC6-9611-BF2C8F1508C5}"/>
-    <hyperlink ref="N10" r:id="rId4" xr:uid="{4DA9B9A9-0293-476D-9AC0-279A17C4FC32}"/>
-    <hyperlink ref="N12" r:id="rId5" xr:uid="{A5AB365D-918E-432F-9CAD-3079F7759943}"/>
-    <hyperlink ref="N2" r:id="rId6" xr:uid="{FDF5A933-9C75-4FB7-A8BB-2F112DD3BDE6}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/RQ3/result/GB/GB_11.xlsx
+++ b/RQ3/result/GB/GB_11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICSE2020APIComp.github.io\RQ3\result\GB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347F7F20-EAB6-41A0-B905-B2E3B6B0A17E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C6394F-300F-444B-B4A0-C1FD88C63870}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{0C38CB4F-AEE5-43E9-99FD-92CDCA2F7B25}"/>
   </bookViews>
@@ -668,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9633286-95B1-461A-B199-009C1CB0DEF7}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:X1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/RQ3/result/GB/GB_11.xlsx
+++ b/RQ3/result/GB/GB_11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICSE2020APIComp.github.io\RQ3\result\GB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C6394F-300F-444B-B4A0-C1FD88C63870}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746EBDB3-9FE1-4E61-8EE6-F4A2F1FA3990}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{0C38CB4F-AEE5-43E9-99FD-92CDCA2F7B25}"/>
   </bookViews>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>cost_time_v1:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>M</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -261,6 +257,10 @@
   </si>
   <si>
     <t>When developing a JDBC driver, which one should be used if considering the exception chaining mechanism?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost_time:</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -669,7 +669,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -695,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -716,7 +716,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -727,22 +727,22 @@
         <v>35251000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -759,22 +759,22 @@
         <v>8249173</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
@@ -791,22 +791,22 @@
         <v>40471</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -823,22 +823,22 @@
         <v>12350248</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -855,22 +855,22 @@
         <v>5484227</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -887,22 +887,22 @@
         <v>13360430</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="H7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" s="5">
         <v>2</v>
@@ -919,22 +919,22 @@
         <v>355089</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="H8" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" s="1">
         <v>2</v>
@@ -951,22 +951,22 @@
         <v>12998568</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="G9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" s="5">
         <v>3</v>
@@ -983,22 +983,22 @@
         <v>17378108</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="H10" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" s="1">
         <v>2</v>
@@ -1015,22 +1015,22 @@
         <v>22458575</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" s="5">
         <v>1</v>
@@ -1047,22 +1047,22 @@
         <v>5155226</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="H12" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -1079,22 +1079,22 @@
         <v>1518103</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="H13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" s="5">
         <v>2</v>
